--- a/策划文档/战斗/枪械设计.xlsx
+++ b/策划文档/战斗/枪械设计.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoming\Documents\工作空间\KOS\策划配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoming\Documents\GitHub\kos\策划文档\战斗\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="枪械设计" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="枪械类型参考" sheetId="2" r:id="rId3"/>
-    <sheet name="子弹规格" sheetId="3" r:id="rId4"/>
+    <sheet name="枪械类型参考" sheetId="2" r:id="rId2"/>
+    <sheet name="子弹规格" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>冲锋枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手枪弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +199,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>连发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程(格子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速(RPM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1抛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹半径(像素)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>子弹初速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连发</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹匣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋枪、自动步枪、机枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密集火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速慢+控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击+++、命中+++、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、命中++、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、命中、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、命中++、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击++、命中+++、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、命中++、穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击、命中+、穿透+++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3类附加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2类控制技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +672,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,75 +957,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>42</v>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>64</v>
+      </c>
+      <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -644,13 +1312,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="109.875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="109.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -661,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,7 +1340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -683,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -705,7 +1373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -716,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -727,7 +1395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -735,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -743,7 +1411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -751,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -759,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -767,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -782,97 +1450,389 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/战斗/枪械设计.xlsx
+++ b/策划文档/战斗/枪械设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoming\Documents\Tencent Files\171345679\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoming\Documents\GitHub\kos\策划文档\战斗\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -922,13 +922,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1262,60 +1262,60 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="U2" s="10" t="s">
@@ -1332,20 +1332,20 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="12" t="s">
         <v>176</v>
       </c>
@@ -1355,9 +1355,9 @@
       <c r="Q3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
@@ -1482,7 +1482,7 @@
         <v>83</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S5" s="9">
         <v>0.1</v>
@@ -2420,6 +2420,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="J2:J3"/>
@@ -2429,15 +2438,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
